--- a/v1/Specs_v1.xlsx
+++ b/v1/Specs_v1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.bulley\Team-Infinite\documentation\Specs_w_Estimates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victoriadudley\Desktop\Team-Infinite\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,28 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
-  <si>
-    <t>Specification</t>
-  </si>
-  <si>
-    <t>Calculate x and y distance using the start coordinates and exchange coordinates.</t>
-  </si>
-  <si>
-    <t>Display “Home Address” at the (0,0) location on grid</t>
-  </si>
-  <si>
-    <t>Display exchange ID at grid location</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>IDs must be unique</t>
-  </si>
-  <si>
-    <t>Total the distance and output exchange ID with shortest distance</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>If both distances are the same, output first ID</t>
   </si>
@@ -59,53 +38,65 @@
     <t>M1 / M2</t>
   </si>
   <si>
-    <t>Development estimation (hours)</t>
-  </si>
-  <si>
-    <t>Testing estimation (hours)</t>
-  </si>
-  <si>
-    <t>(Setup)</t>
-  </si>
-  <si>
-    <t>Let User input 2 exchange locations by coordinate (w/ ID's in form ex:p:q)</t>
-  </si>
-  <si>
     <t>M4</t>
   </si>
   <si>
-    <t>Create and display visual 2D grid</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>M1 / C2</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>Estimations need to be revised for the next version of the specs.</t>
-  </si>
-  <si>
     <t>Validate grid input as greater or equal to 0 and equal or less than 100,000</t>
   </si>
   <si>
-    <t>!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
-  </si>
-  <si>
-    <t>!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
-  </si>
-  <si>
-    <t>This is just a default value as we need to assess our original estimates</t>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>Exchange IDs must be unique</t>
+  </si>
+  <si>
+    <t>Let User input 2 exchanges</t>
+  </si>
+  <si>
+    <t>Let User input exchange format as an ID, x location, and y location</t>
+  </si>
+  <si>
+    <t>Calculate exchange distance as x + y location</t>
+  </si>
+  <si>
+    <t>Determine which exchange has smallest distance and output its ID</t>
+  </si>
+  <si>
+    <t>Validate exchange ID format "ex:[0-9]:[0-9]"</t>
+  </si>
+  <si>
+    <t>SPECIFICATION</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DEVELOPMENT TIME</t>
+  </si>
+  <si>
+    <t>TEST TIME</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>MUST HAVE</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>VERSION1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +107,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,17 +127,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,22 +171,65 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -208,47 +255,169 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="double">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -527,188 +696,367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="73.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="67.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="D8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10">
+      <c r="D10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="2">
         <v>0.5</v>
       </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.5</v>
       </c>
-      <c r="D5" s="10">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="E13" s="1">
         <v>0.5</v>
       </c>
-      <c r="D6" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="D14" s="21">
+        <f>SUM(D6:D13)</f>
+        <v>3.25</v>
+      </c>
+      <c r="E14" s="22">
+        <f>SUM(E6:E13)</f>
+        <v>4.5</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3">
-        <f>SUM(C2:C13)</f>
-        <v>3.5</v>
-      </c>
-      <c r="D14" s="3">
-        <f>SUM(D5:D13)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="9"/>
+      <c r="E17" s="23">
+        <f>SUM(D14+E14)</f>
+        <v>7.75</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
